--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value96.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value96.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.001833973161403</v>
+        <v>1.905654311180115</v>
       </c>
       <c r="B1">
-        <v>1.420488405395644</v>
+        <v>4.73459529876709</v>
       </c>
       <c r="C1">
-        <v>2.644715190099901</v>
+        <v>3.319035291671753</v>
       </c>
       <c r="D1">
-        <v>4.874186573993254</v>
+        <v>2.212757110595703</v>
       </c>
       <c r="E1">
-        <v>1.136631944419045</v>
+        <v>1.98274290561676</v>
       </c>
     </row>
   </sheetData>
